--- a/golf-analytics-app/data/golf-analytics.xlsx
+++ b/golf-analytics-app/data/golf-analytics.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenbezick/Documents/GitHub/Golf-Analytics/golf-analytics-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenbezick/Documents/GitHub/Golf-Analytics/golf-analytics-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF7AF7D-F348-D54D-8796-D5655AF89776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027CAEB-5AED-124E-958A-5685031003F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74240" yWindow="-2160" windowWidth="38400" windowHeight="21600" xr2:uid="{2526A47F-C4B2-814C-9963-40A0D16B3D58}"/>
+    <workbookView xWindow="74240" yWindow="-1660" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{2526A47F-C4B2-814C-9963-40A0D16B3D58}"/>
   </bookViews>
   <sheets>
     <sheet name="rounds" sheetId="1" r:id="rId1"/>
-    <sheet name="courses" sheetId="3" r:id="rId2"/>
-    <sheet name="clubs" sheetId="5" r:id="rId3"/>
-    <sheet name="holes" sheetId="2" r:id="rId4"/>
+    <sheet name="holes" sheetId="2" r:id="rId2"/>
+    <sheet name="courses" sheetId="3" r:id="rId3"/>
+    <sheet name="clubs" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>2pm</t>
   </si>
@@ -66,63 +66,12 @@
     <t>par</t>
   </si>
   <si>
-    <t>miss_one</t>
-  </si>
-  <si>
-    <t>miss_two</t>
-  </si>
-  <si>
-    <t>strength_one</t>
-  </si>
-  <si>
-    <t>strength_two</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>chipping</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>6 iron</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>9 iron approach</t>
-  </si>
-  <si>
     <t>holes</t>
   </si>
   <si>
     <t>front 9</t>
   </si>
   <si>
-    <t>chipping/sand</t>
-  </si>
-  <si>
-    <t>sand wedge approach</t>
-  </si>
-  <si>
-    <t>4 wood tee</t>
-  </si>
-  <si>
-    <t>6 iron tee</t>
-  </si>
-  <si>
-    <t>hybrid</t>
-  </si>
-  <si>
-    <t>8 iron approach</t>
-  </si>
-  <si>
-    <t>pulled gap wedge</t>
-  </si>
-  <si>
     <t>good par. Most important shot is next shot.</t>
   </si>
   <si>
@@ -219,9 +168,6 @@
     <t>Sand Wedge</t>
   </si>
   <si>
-    <t>Lob Wedge</t>
-  </si>
-  <si>
     <t>http://birkdale.com/</t>
   </si>
   <si>
@@ -234,15 +180,6 @@
     <t>course_logo</t>
   </si>
   <si>
-    <t>course_scorecard</t>
-  </si>
-  <si>
-    <t>http://birkdale.com/wp-content/uploads/2018/05/Birkdale-Scorecard.jpg</t>
-  </si>
-  <si>
-    <t>http://birkdale.com/wp-content/uploads/2018/05/Birkdale-Golf-Club.png</t>
-  </si>
-  <si>
     <t>Srixon F45</t>
   </si>
   <si>
@@ -279,7 +216,61 @@
     <t>Titleist Vokey SM6</t>
   </si>
   <si>
-    <t>Cleveland</t>
+    <t>green_in_regulation</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>fairway</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>round_name</t>
+  </si>
+  <si>
+    <t>post lesson nine</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>putts</t>
+  </si>
+  <si>
+    <t>SM7 Wedge Flex</t>
+  </si>
+  <si>
+    <t>SM8 Wedge Flex</t>
+  </si>
+  <si>
+    <t>birkdale_logo.png</t>
+  </si>
+  <si>
+    <t>up_down_type</t>
+  </si>
+  <si>
+    <t>up_down</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>putt_made_feet</t>
   </si>
 </sst>
 </file>
@@ -332,8 +323,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,56 +640,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BC063-A512-584D-AE6B-41CF44D94B14}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44240</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44268</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -708,91 +706,425 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7034BA2-6687-0848-AD0F-829E418D4300}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="93.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D34518E-41E6-B24D-AAC1-B045DC560728}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="193.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1">
         <v>35.44088</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>-80.882140000000007</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{03654C45-EC0E-5B4E-89FB-44A87B8CFADE}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{48295CE5-9BF4-1A42-AC08-EB857D1C1CAB}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{7EB2ADF0-AF94-3545-BE7E-04323231BD11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5D4AD-80CD-A944-BBF2-82A23D8F4DC3}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,42 +1139,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>9.5</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>250</v>
@@ -853,19 +1185,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>230</v>
@@ -876,19 +1208,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -899,19 +1231,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>190</v>
@@ -922,19 +1254,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>180</v>
@@ -945,19 +1277,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>170</v>
@@ -968,19 +1300,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>160</v>
@@ -991,19 +1323,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
       </c>
       <c r="C9">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -1014,19 +1346,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>140</v>
@@ -1037,19 +1369,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>120</v>
@@ -1060,19 +1392,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>110</v>
@@ -1083,363 +1415,29 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>90</v>
       </c>
       <c r="G13">
         <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14">
-        <v>70</v>
-      </c>
-      <c r="G14">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7034BA2-6687-0848-AD0F-829E418D4300}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>